--- a/paper/data/no-interleaved/no-interleaved-final-pic.xlsx
+++ b/paper/data/no-interleaved/no-interleaved-final-pic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Desktop/data/no-interleaved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/no-interleaved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D26A8301-BBD0-FA45-AD55-8E20A0D22D79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308B0ACE-D3C8-E34D-9453-016C00CBC92A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -37,9 +35,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>numalloc</t>
-  </si>
   <si>
     <t>jemalloc</t>
   </si>
@@ -72,6 +67,9 @@
   </si>
   <si>
     <t>2-node</t>
+  </si>
+  <si>
+    <t>NUMAlloc</t>
   </si>
 </sst>
 </file>
@@ -325,7 +323,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>numalloc</c:v>
+                  <c:v>NUMAlloc</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -999,24 +997,47 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1100">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Normalized</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1200"/>
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1200"/>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Runtime</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1200"/>
+                <a:endParaRPr lang="en-US" sz="1100">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.9005349522934437E-2"/>
+              <c:y val="0.17910339308956713"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1043,13 +1064,23 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18610291294733655"/>
+          <c:y val="6.9211506549206922E-2"/>
+          <c:w val="0.6277941741053269"/>
+          <c:h val="9.7814841962518606E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" baseline="0">
+            <a:defRPr sz="1100" baseline="0">
               <a:latin typeface="Times New Roman"/>
             </a:defRPr>
           </a:pPr>
@@ -1066,7 +1097,6 @@
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
   </c:printSettings>
-  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1816,56 +1846,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.08831</cdr:x>
-      <cdr:y>0.44185</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.99362</cdr:x>
-      <cdr:y>0.44185</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="6" name="Straight Connector 5">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB6DEF27-FCE5-6248-B599-55DE848BFE41}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="649145" y="972924"/>
-          <a:ext cx="6654503" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -2211,41 +2191,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="171" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -2271,7 +2251,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
@@ -2297,7 +2277,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4">
         <v>1</v>
@@ -2323,7 +2303,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>1</v>
@@ -2359,7 +2339,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -2385,7 +2365,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -2411,7 +2391,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="4">
         <v>1</v>
@@ -2437,7 +2417,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4">
         <v>1</v>

--- a/paper/data/no-interleaved/no-interleaved-final-pic.xlsx
+++ b/paper/data/no-interleaved/no-interleaved-final-pic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/no-interleaved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308B0ACE-D3C8-E34D-9453-016C00CBC92A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E34A4F2-DCB5-0040-B514-33EB9D10DDE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/paper/data/no-interleaved/no-interleaved-final-pic.xlsx
+++ b/paper/data/no-interleaved/no-interleaved-final-pic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/no-interleaved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/no-interleaved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E34A4F2-DCB5-0040-B514-33EB9D10DDE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F3995F-79B7-EE40-BFB7-AF88AF321923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -34,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>jemalloc</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="10">
   <si>
     <t>canneal</t>
   </si>
@@ -51,32 +50,29 @@
     <t>streamcluster</t>
   </si>
   <si>
-    <t>glibc</t>
-  </si>
-  <si>
-    <t>TcMalloc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TcMalloc-NUMA </t>
-  </si>
-  <si>
-    <t>Scalloc</t>
-  </si>
-  <si>
-    <t>TBB</t>
-  </si>
-  <si>
     <t>2-node</t>
   </si>
   <si>
-    <t>NUMAlloc</t>
+    <t>8-node</t>
+  </si>
+  <si>
+    <t>With Interleaved Heap</t>
+  </si>
+  <si>
+    <t>W/O Interleaved Heap</t>
+  </si>
+  <si>
+    <t>Aget</t>
+  </si>
+  <si>
+    <t>vips</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -198,6 +194,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -241,7 +245,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -260,6 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -319,31 +324,36 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>Sheet1!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NUMAlloc</c:v>
+                  <c:v>With Interleaved Heap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="85000"/>
-                <a:lumOff val="15000"/>
-              </a:schemeClr>
-            </a:solidFill>
+            <a:pattFill prst="pct20">
+              <a:fgClr>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
+                </a:schemeClr>
+              </a:fgClr>
+              <a:bgClr>
+                <a:schemeClr val="bg1"/>
+              </a:bgClr>
+            </a:pattFill>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$19:$A$31</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>raytrace</c:v>
+                  <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>canneal</c:v>
@@ -352,52 +362,76 @@
                   <c:v>fluidanimate</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>streamcluster</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>raytrace</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>vips</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>Sheet1!$B$19:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.85548487199379364</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87742382271121888</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.92588454376163865</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0239899649819681</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.92533415271163</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.7714101738570508</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60847338230854375</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.67000084767313728</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,402 +447,21 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$C$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TcMalloc</c:v>
+                  <c:v>W/O Interleaved Heap</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:pattFill prst="dkHorz">
+            <a:pattFill prst="narVert">
               <a:fgClr>
-                <a:scrgbClr r="0" g="0" b="0"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:prstClr val="white"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.802234290147401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.91607513850415523</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99329608938547487</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96696806564574289</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.78539330158242437</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86767546683837726</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.80901680587702518</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0281003644994491</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-840F-6F48-970E-982C5DEF7628}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TcMalloc-NUMA </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="50000"/>
-                <a:lumOff val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.81244375484871989</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9336045706371191</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0004655493482308</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1129462185752361</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.79745352588723306</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.86567933032839661</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.0431116030995269</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0696363482241249</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-840F-6F48-970E-982C5DEF7628}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>jemalloc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct30">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$F$2:$F$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.96369899146625293</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.93493767313019394</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99515828677839846</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.6412271990801233</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91210247349823315</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.75959433354797168</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.3796920599778604</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0461558023226245</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-840F-6F48-970E-982C5DEF7628}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>TBB</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="wdUpDiag">
-              <a:fgClr>
-                <a:schemeClr val="tx1"/>
-              </a:fgClr>
-              <a:bgClr>
-                <a:schemeClr val="bg1"/>
-              </a:bgClr>
-            </a:pattFill>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
-              <c:strCache>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>raytrace</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>streamcluster</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$G$2:$G$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0.99543832428238932</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0036790166204985</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.92923649906890127</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.7255004442586106</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0005761253648793</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.99423696072118473</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.87781020428700807</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0123336441468169</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-840F-6F48-970E-982C5DEF7628}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Scalloc</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:pattFill prst="pct70">
-              <a:fgClr>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="50000"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="85000"/>
+                  <a:lumOff val="15000"/>
                 </a:schemeClr>
               </a:fgClr>
               <a:bgClr>
@@ -819,11 +472,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$10</c:f>
+              <c:f>Sheet1!$A$19:$A$31</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>raytrace</c:v>
+                  <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>canneal</c:v>
@@ -832,59 +485,83 @@
                   <c:v>fluidanimate</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>raytrace</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>streamcluster</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>vips</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aget</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>canneal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>fluidanimate</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>raytrace</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>canneal</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>fluidanimate</c:v>
-                </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="11">
                   <c:v>streamcluster</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>vips</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$10</c:f>
+              <c:f>Sheet1!$C$19:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.86755624515128005</c:v>
+                  <c:v>0.96684851024423002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.016187673130194</c:v>
+                  <c:v>0.83942028985175987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0268156424581005</c:v>
+                  <c:v>1.0698224852071005</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4132127737417026</c:v>
+                  <c:v>0.70991167306157144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0967308553515451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.90828084191119984</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.1565679330328396</c:v>
+                  <c:v>1.0043536768716852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2203481936198046</c:v>
+                  <c:v>1.1584699444018436</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.89743155039416811</c:v>
+                  <c:v>0.60169257426985767</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5346661989945045</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.83415275950418943</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0137882383120631</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.114228819642288</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-840F-6F48-970E-982C5DEF7628}"/>
+              <c16:uniqueId val="{00000001-840F-6F48-970E-982C5DEF7628}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -930,7 +607,15 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>                                                                                                               </a:t>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(2-Node)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>                                                                                             </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
@@ -943,6 +628,14 @@
                 <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
                   <a:t>B</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(8-Node)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -985,7 +678,7 @@
         <c:axId val="2124026792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.8"/>
+          <c:max val="1.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1034,8 +727,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9005349522934437E-2"/>
-              <c:y val="0.17910339308956713"/>
+              <c:x val="1.9005323715747622E-2"/>
+              <c:y val="0.15608797609317718"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1060,6 +753,7 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.2"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1068,10 +762,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18610291294733655"/>
-          <c:y val="6.9211506549206922E-2"/>
-          <c:w val="0.6277941741053269"/>
-          <c:h val="9.7814841962518606E-2"/>
+          <c:x val="0.29570607667708781"/>
+          <c:y val="9.8049778093506998E-2"/>
+          <c:w val="0.45386637724264928"/>
+          <c:h val="9.7608502217252716E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1080,7 +774,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1100" baseline="0">
+            <a:defRPr sz="1000" baseline="0">
               <a:latin typeface="Times New Roman"/>
             </a:defRPr>
           </a:pPr>
@@ -1097,6 +791,7 @@
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup paperSize="9" orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
   </c:printSettings>
+  <c:userShapes r:id="rId1"/>
 </c:chartSpace>
 </file>
 
@@ -1126,7 +821,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$6</c:f>
+              <c:f>Sheet1!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1145,11 +840,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:f>Sheet1!$A$26:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>raytrace</c:v>
+                  <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>canneal</c:v>
@@ -1158,14 +853,14 @@
                   <c:v>fluidanimate</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>streamcluster</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$7:$B$10</c:f>
+              <c:f>Sheet1!$B$26:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1195,7 +890,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$6</c:f>
+              <c:f>Sheet1!$C$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1212,11 +907,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:f>Sheet1!$A$26:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>raytrace</c:v>
+                  <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>canneal</c:v>
@@ -1225,28 +920,28 @@
                   <c:v>fluidanimate</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>streamcluster</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$7:$C$10</c:f>
+              <c:f>Sheet1!$C$26:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.92533415271163</c:v>
+                  <c:v>1.1584699444018436</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.7714101738570508</c:v>
+                  <c:v>0.60169257426985767</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60847338230854375</c:v>
+                  <c:v>3.5346661989945045</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.67000084767313728</c:v>
+                  <c:v>0.83415275950418943</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,7 +957,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$6</c:f>
+              <c:f>Sheet1!$D$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1281,11 +976,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:f>Sheet1!$A$26:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>raytrace</c:v>
+                  <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>canneal</c:v>
@@ -1294,29 +989,17 @@
                   <c:v>fluidanimate</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>streamcluster</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$7:$D$10</c:f>
+              <c:f>Sheet1!$D$26:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.78539330158242437</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86767546683837726</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.80901680587702518</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0281003644994491</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1331,7 +1014,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$6</c:f>
+              <c:f>Sheet1!$E$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1347,11 +1030,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:f>Sheet1!$A$26:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>raytrace</c:v>
+                  <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>canneal</c:v>
@@ -1360,29 +1043,17 @@
                   <c:v>fluidanimate</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>streamcluster</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$7:$E$10</c:f>
+              <c:f>Sheet1!$E$26:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.79745352588723306</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.86567933032839661</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0431116030995269</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0696363482241249</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1397,7 +1068,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$6</c:f>
+              <c:f>Sheet1!$F$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1416,11 +1087,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:f>Sheet1!$A$26:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>raytrace</c:v>
+                  <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>canneal</c:v>
@@ -1429,29 +1100,17 @@
                   <c:v>fluidanimate</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>streamcluster</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$7:$F$10</c:f>
+              <c:f>Sheet1!$F$26:$F$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.91210247349823315</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75959433354797168</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.3796920599778604</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0461558023226245</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1466,7 +1125,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$G$6</c:f>
+              <c:f>Sheet1!$G$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1487,11 +1146,11 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:f>Sheet1!$A$26:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>raytrace</c:v>
+                  <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>canneal</c:v>
@@ -1500,29 +1159,17 @@
                   <c:v>fluidanimate</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>streamcluster</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$7:$G$10</c:f>
+              <c:f>Sheet1!$G$26:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1.0005761253648793</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99423696072118473</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.87781020428700807</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0123336441468169</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1537,7 +1184,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$6</c:f>
+              <c:f>Sheet1!$H$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
               </c:strCache>
@@ -1566,11 +1213,11 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$7:$A$10</c:f>
+              <c:f>Sheet1!$A$26:$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>raytrace</c:v>
+                  <c:v>Aget</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>canneal</c:v>
@@ -1579,29 +1226,17 @@
                   <c:v>fluidanimate</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>streamcluster</c:v>
+                  <c:v>raytrace</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$7:$H$10</c:f>
+              <c:f>Sheet1!$H$26:$H$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.90828084191119984</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.1565679330328396</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2203481936198046</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.89743155039416811</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1772,16 +1407,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>390621</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>155965</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>308390</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>37188</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>321709</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152121</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>239478</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>33344</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1809,15 +1444,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>724191</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>170817</xdr:rowOff>
+      <xdr:colOff>57213</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>198227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>631287</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>40715</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>786611</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>68125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1846,6 +1481,53 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.75146</cdr:x>
+      <cdr:y>0.1708</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79534</cdr:x>
+      <cdr:y>0.27015</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F07576B-FB7E-7742-9E80-7ED0ABC43D98}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5680706" y="381121"/>
+          <a:ext cx="331714" cy="221685"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>3.5</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -2189,342 +1871,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="171" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2.9787499999999998</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2.8799999998899999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>30.1875</v>
+      </c>
+      <c r="C3" s="4">
+        <v>25.339999999900002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4">
+        <v>11.61875</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>48.541249999999998</v>
+      </c>
+      <c r="C5" s="4">
+        <v>34.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4">
+        <v>22.33</v>
+      </c>
+      <c r="C6" s="4">
+        <v>24.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4">
+        <v>15.79125</v>
+      </c>
+      <c r="C7" s="4">
+        <v>15.859999999899999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="18"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1.3725000009999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.5899999998500001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B11" s="4">
+        <v>49.776249999999997</v>
+      </c>
+      <c r="C11" s="4">
+        <v>29.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4">
+        <v>10.69125</v>
+      </c>
+      <c r="C12" s="4">
+        <v>37.79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4">
+        <v>72.204999999999998</v>
+      </c>
+      <c r="C13" s="4">
+        <v>60.23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4">
+        <v>19.491250000000001</v>
+      </c>
+      <c r="C14" s="4">
+        <v>19.760000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0.85548487199379364</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0.802234290147401</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0.81244375484871989</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0.96369899146625293</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0.99543832428238932</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0.86755624515128005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0.87742382271121888</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0.91607513850415523</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0.9336045706371191</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0.93493767313019394</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1.0036790166204985</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1.016187673130194</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.92588454376163865</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.99329608938547487</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1.0004655493482308</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0.99515828677839846</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.92923649906890127</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1.0268156424581005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1.0239899649819681</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0.96696806564574289</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2.1129462185752361</v>
-      </c>
-      <c r="F5" s="4">
-        <v>1.6412271990801233</v>
-      </c>
-      <c r="G5" s="4">
-        <v>1.7255004442586106</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1.4132127737417026</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="15" customFormat="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0.92533415271163</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.78539330158242437</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0.79745352588723306</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0.91210247349823315</v>
-      </c>
-      <c r="G7" s="4">
-        <v>1.0005761253648793</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0.90828084191119984</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>0.7714101738570508</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.86767546683837726</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0.86567933032839661</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0.75959433354797168</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.99423696072118473</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1.1565679330328396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4">
-        <v>0.60847338230854375</v>
-      </c>
-      <c r="D9" s="4">
-        <v>0.80901680587702518</v>
-      </c>
-      <c r="E9" s="4">
-        <v>2.0431116030995269</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1.3796920599778604</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.87781020428700807</v>
-      </c>
-      <c r="H9" s="4">
-        <v>2.2203481936198046</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.67000084767313728</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1.0281003644994491</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1.0696363482241249</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1.0461558023226245</v>
-      </c>
-      <c r="G10" s="4">
-        <v>1.0123336441468169</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.89743155039416811</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="11"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="3"/>
+      <c r="B15" s="4">
+        <v>6.9050000000000002</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7.6937499996299996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="18"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="5"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="A19" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B2/B2</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="4">
+        <f>C2/B2</f>
+        <v>0.96684851024423002</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2532,9 +2084,17 @@
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4">
+        <f t="shared" ref="B20:B24" si="0">B3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="4">
+        <f t="shared" ref="C20:C24" si="1">C3/B3</f>
+        <v>0.83942028985175987</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2542,9 +2102,17 @@
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="A21" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C21" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0698224852071005</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2552,9 +2120,17 @@
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="A22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="1"/>
+        <v>0.70991167306157144</v>
+      </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2562,9 +2138,17 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="A23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C23" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0967308553515451</v>
+      </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2572,29 +2156,45 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="A24" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0043536768716852</v>
+      </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+    <row r="25" spans="1:8" s="15" customFormat="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="A26" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="4">
+        <f>B10/B10</f>
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <f>C10/B10</f>
+        <v>1.1584699444018436</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2602,9 +2202,17 @@
       <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="A27" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="shared" ref="B27:B31" si="2">B11/B11</f>
+        <v>1</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" ref="C27:C31" si="3">C11/B11</f>
+        <v>0.60169257426985767</v>
+      </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2612,9 +2220,17 @@
       <c r="H27" s="4"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="6"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="A28" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C28" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5346661989945045</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2622,9 +2238,17 @@
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="A29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <f t="shared" si="3"/>
+        <v>0.83415275950418943</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2632,57 +2256,73 @@
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="7"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
+      <c r="A30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="3"/>
+        <v>1.0137882383120631</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="7"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
+      <c r="A31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="C31" s="4">
+        <f t="shared" si="3"/>
+        <v>1.114228819642288</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="1"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="4"/>
+      <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2692,7 +2332,7 @@
       <c r="H35" s="4"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="4"/>
+      <c r="A36" s="5"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2702,7 +2342,7 @@
       <c r="H36" s="4"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="4"/>
+      <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2712,7 +2352,7 @@
       <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="4"/>
+      <c r="A38" s="5"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
@@ -2722,37 +2362,37 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+      <c r="A39" s="5"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+      <c r="A40" s="5"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="12"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="3"/>
+      <c r="A42" s="5"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2762,7 +2402,7 @@
       <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="5"/>
+      <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2792,7 +2432,7 @@
       <c r="H45" s="4"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="5"/>
+      <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2802,7 +2442,7 @@
       <c r="H46" s="4"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="5"/>
+      <c r="A47" s="6"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2812,7 +2452,7 @@
       <c r="H47" s="4"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="3"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2822,7 +2462,7 @@
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="5"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2832,7 +2472,7 @@
       <c r="H49" s="4"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="3"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
@@ -2842,37 +2482,37 @@
       <c r="H50" s="4"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="5"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="14"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="6"/>
+      <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
@@ -2882,7 +2522,7 @@
       <c r="H54" s="4"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="7"/>
+      <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
@@ -2892,7 +2532,7 @@
       <c r="H55" s="4"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="7"/>
+      <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
@@ -2902,7 +2542,7 @@
       <c r="H56" s="4"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="7"/>
+      <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
@@ -2913,36 +2553,36 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="1"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="1"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="16"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="11"/>
+      <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2951,18 +2591,18 @@
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
     </row>
-    <row r="62" spans="1:8" s="15" customFormat="1">
-      <c r="A62" s="13"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
+    <row r="62" spans="1:8">
+      <c r="A62" s="5"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="4"/>
+      <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
@@ -2972,7 +2612,7 @@
       <c r="H63" s="4"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="4"/>
+      <c r="A64" s="5"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
@@ -2982,7 +2622,7 @@
       <c r="H64" s="4"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="4"/>
+      <c r="A65" s="5"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
@@ -2992,7 +2632,7 @@
       <c r="H65" s="4"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="4"/>
+      <c r="A66" s="5"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
@@ -3002,14 +2642,204 @@
       <c r="H66" s="4"/>
     </row>
     <row r="67" spans="1:8">
-      <c r="A67" s="11"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
+      <c r="A67" s="3"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="5"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="3"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="3"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="5"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="14"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="6"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="7"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="7"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="7"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="16"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="11"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+    </row>
+    <row r="81" spans="1:8" s="15" customFormat="1">
+      <c r="A81" s="13"/>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="11"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>

--- a/paper/data/no-interleaved/no-interleaved-final-pic.xlsx
+++ b/paper/data/no-interleaved/no-interleaved-final-pic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/no-interleaved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/no-interleaved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F3995F-79B7-EE40-BFB7-AF88AF321923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E1E0C-5D8D-FA4F-A0C9-94C2DCB44C70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -645,8 +645,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.21919806948094578"/>
-              <c:y val="0.84885914550129749"/>
+              <c:x val="0.1990381708976256"/>
+              <c:y val="0.85455077540293889"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -727,8 +727,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.9005323715747622E-2"/>
-              <c:y val="0.15608797609317718"/>
+              <c:x val="2.0685344573853886E-2"/>
+              <c:y val="0.11055519603326408"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -762,8 +762,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.29570607667708781"/>
-          <c:y val="9.8049778093506998E-2"/>
+          <c:x val="0.2705061342896507"/>
+          <c:y val="6.3900157572346128E-2"/>
           <c:w val="0.45386637724264928"/>
           <c:h val="9.7608502217252716E-2"/>
         </c:manualLayout>
@@ -1409,14 +1409,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>308390</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>37188</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>198054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>239478</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>33344</xdr:rowOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>194210</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1477,6 +1477,66 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>795867</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>143932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E883D772-AF50-1246-BB81-926533ED7D19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2616200" y="8178799"/>
+          <a:ext cx="4868334" cy="296333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1484,12 +1544,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.75146</cdr:x>
-      <cdr:y>0.1708</cdr:y>
+      <cdr:x>0.7481</cdr:x>
+      <cdr:y>0.16321</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.79534</cdr:x>
-      <cdr:y>0.27015</cdr:y>
+      <cdr:x>0.79198</cdr:x>
+      <cdr:y>0.26256</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1504,8 +1564,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5680706" y="381121"/>
-          <a:ext cx="331714" cy="221685"/>
+          <a:off x="5655302" y="364182"/>
+          <a:ext cx="331713" cy="221685"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1873,8 +1933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/paper/data/no-interleaved/no-interleaved-final-pic.xlsx
+++ b/paper/data/no-interleaved/no-interleaved-final-pic.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tongpingliu/projects/numalloc/paper/data/no-interleaved/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinzhao/Library/Mobile Documents/com~apple~CloudDocs/C:C++ project/numalloc/paper/data/no-interleaved/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713E1E0C-5D8D-FA4F-A0C9-94C2DCB44C70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C76F2D-7002-CF4B-8078-3CC6EB498142}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -594,50 +594,86 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Machine</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>A</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>(2-Node)</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>                                                                                             </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>Machine</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>B</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:rPr lang="zh-CN" altLang="en-US">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:rPr lang="en-US" altLang="zh-CN">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
                   <a:t>(8-Node)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US">
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -690,33 +726,33 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1100">
+                  <a:defRPr sz="1000">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>Normalized</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:rPr lang="zh-CN" altLang="en-US" sz="1000">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t> </a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="1000">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>Runtime</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1100">
+                <a:endParaRPr lang="en-US" sz="1000">
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
@@ -727,8 +763,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.0685344573853886E-2"/>
-              <c:y val="0.11055519603326408"/>
+              <c:x val="2.068535800308912E-2"/>
+              <c:y val="0.14031722597175353"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -762,8 +798,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.2705061342896507"/>
-          <c:y val="6.3900157572346128E-2"/>
+          <c:x val="0.27050619444174412"/>
+          <c:y val="7.0780605549306347E-2"/>
           <c:w val="0.45386637724264928"/>
           <c:h val="9.7608502217252716E-2"/>
         </c:manualLayout>
@@ -774,7 +810,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1000" baseline="0">
+            <a:defRPr sz="800" baseline="0">
               <a:latin typeface="Times New Roman"/>
             </a:defRPr>
           </a:pPr>
@@ -1414,9 +1450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>239478</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>194210</xdr:rowOff>
+      <xdr:colOff>160720</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>54150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1444,15 +1480,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>57213</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>198227</xdr:rowOff>
+      <xdr:colOff>531093</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>8675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>786611</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>68125</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>426461</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>87080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1545,11 +1581,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.7481</cdr:x>
-      <cdr:y>0.16321</cdr:y>
+      <cdr:y>0.14611</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>0.79198</cdr:x>
-      <cdr:y>0.26256</cdr:y>
+      <cdr:y>0.24546</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -1564,8 +1600,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5655302" y="364182"/>
-          <a:ext cx="331713" cy="221685"/>
+          <a:off x="5540907" y="374077"/>
+          <a:ext cx="325004" cy="254368"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -1933,7 +1969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
